--- a/evaluation/results/LOF/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/LOF/split_4/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.2044662066918911</v>
       </c>
       <c r="H2">
-        <v>0.5777153558052435</v>
+        <v>0.719781452959082</v>
       </c>
       <c r="I2">
         <v>106</v>
